--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
   <si>
     <t>Sir</t>
   </si>
@@ -50,31 +50,34 @@
     <t>SevenEleven</t>
   </si>
   <si>
-    <t>Tesco</t>
-  </si>
-  <si>
     <t>VillaMarket</t>
   </si>
   <si>
-    <t>McD</t>
-  </si>
-  <si>
-    <t>Cake</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Villa Market</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>mah</t>
   </si>
   <si>
-    <t>kok</t>
+    <t>20/10/2017</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>21/10/2017</t>
+  </si>
+  <si>
+    <t>22/10/2017</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>koka</t>
+  </si>
+  <si>
+    <t>sir</t>
+  </si>
+  <si>
+    <t>KFC</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -519,7 +522,7 @@
       </c>
       <c r="F3" s="2">
         <f>SUM(B3:E3)</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>1</v>
@@ -534,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -547,14 +550,14 @@
       </c>
       <c r="F4" s="2">
         <f>SUM(B4:E4)</f>
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="5">
         <f>C7-F4</f>
-        <v>964</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -582,7 +585,7 @@
       </c>
       <c r="J5" s="5">
         <f>B7-F3</f>
-        <v>-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,8 +596,8 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <f>812+39+370</f>
-        <v>1221</v>
+        <f>812+39+370+200+35</f>
+        <v>1456</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -604,14 +607,14 @@
       </c>
       <c r="F6" s="2">
         <f>SUM(B6:E6)</f>
-        <v>1221</v>
+        <v>1456</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="5">
         <f>E7-F6</f>
-        <v>-931</v>
+        <v>-1166</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -620,11 +623,11 @@
       </c>
       <c r="B7" s="3">
         <f>SUM(B3:B6)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <f>SUM(C3:C6)</f>
-        <v>1264</v>
+        <v>1456</v>
       </c>
       <c r="D7" s="3">
         <f>SUM(D3:D6)</f>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,9 +661,9 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="6">
-        <v>43024</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -674,120 +677,130 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>209</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <f>E2+E3+E10+E12+E13</f>
+        <v>261.91666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <f>C8/4</f>
+        <v>8.25</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="K1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="C2">
-        <v>45</v>
-      </c>
-      <c r="E2">
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <f>F3+F10+F13</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6"/>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <f>48/4</f>
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="C4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6">
-        <v>43027</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="E6">
-        <f>C6/4</f>
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>75</v>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="E13">
+        <f>C12/3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,12 +822,12 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6">
-        <v>43024</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -826,19 +839,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="C2">
-        <v>967</v>
-      </c>
-      <c r="E2">
-        <f>C2/4</f>
-        <v>241.75</v>
-      </c>
+    <row r="2" spans="1:10">
       <c r="F2">
-        <v>241</v>
-      </c>
-      <c r="G2">
-        <v>241</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f>F2+F5</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <f>C5/4</f>
+        <v>27.5</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -870,231 +926,136 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6">
-        <v>43024</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2">
-        <v>500</v>
-      </c>
-      <c r="D2">
-        <f>B2/4</f>
-        <v>125</v>
+      <c r="C2">
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>125</v>
-      </c>
-      <c r="F2">
-        <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <f>D2+D8+D9</f>
-        <v>175</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>109</v>
-      </c>
-      <c r="F3">
-        <v>77</v>
+      <c r="C3">
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
       </c>
       <c r="J3">
-        <f>E2+E3+E8</f>
-        <v>249</v>
+        <f>F7+F8</f>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4">
-        <v>218</v>
+      <c r="C4">
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <f>F2+F3+F8</f>
-        <v>279</v>
+        <f>E2+E7+E8</f>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6">
-        <v>77</v>
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6">
-        <v>43025</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
+      <c r="A7" s="6"/>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <f>75/3</f>
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="D8">
-        <v>35</v>
+      <c r="C8">
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <f>417/3</f>
+        <v>139</v>
       </c>
       <c r="F8">
-        <v>77</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="D9">
-        <v>15</v>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="6">
-        <v>43026</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11">
-        <v>470</v>
-      </c>
-      <c r="D11">
-        <f>500/3</f>
-        <v>166.66666666666666</v>
-      </c>
-      <c r="E11">
-        <v>166</v>
-      </c>
-      <c r="F11">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <f>D11+D12+D17</f>
-        <v>317.16666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>192</v>
+      <c r="A10" s="6"/>
+      <c r="C10">
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="6">
-        <v>43027</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17">
-        <v>602</v>
-      </c>
-      <c r="D17">
-        <f>B17/4</f>
-        <v>150.5</v>
-      </c>
-      <c r="E17">
-        <v>150</v>
-      </c>
-      <c r="F17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="D18">
-        <f>129/3</f>
-        <v>43</v>
-      </c>
-      <c r="E18">
-        <v>43</v>
-      </c>
-      <c r="F18">
-        <v>39</v>
-      </c>
+      <c r="A16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
